--- a/Team_Registration_Form.xlsx
+++ b/Team_Registration_Form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13475\Desktop\school\sem7\comp3111\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phyfq\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D429A822-A882-49BF-B0AC-0737A68207AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D194BE5B-0099-4960-94D6-E0209A9AA53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2244" windowWidth="20160" windowHeight="11844" activeTab="3" xr2:uid="{EAC9B628-614F-4D1F-B0FC-FC1F15D6456A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{EAC9B628-614F-4D1F-B0FC-FC1F15D6456A}"/>
   </bookViews>
   <sheets>
     <sheet name="Team_Registration" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Programmer</t>
   </si>
   <si>
-    <t xml:space="preserve">Team NickName :  [] </t>
-  </si>
-  <si>
     <t>Student No.:</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -335,6 +332,9 @@
   <si>
     <t>√</t>
   </si>
+  <si>
+    <t>Team NickName :  LHS</t>
+  </si>
 </sst>
 </file>
 
@@ -344,7 +344,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -462,7 +462,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -470,7 +470,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1011,6 +1011,72 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1032,9 +1098,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1044,70 +1107,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1116,64 +1170,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{73C57E5B-BD15-466B-BCA1-DD41A0D6797B}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1189,7 +1189,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1487,85 +1487,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638D5824-1872-462B-B51C-B0E02B66DDCC}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" style="35" customWidth="1"/>
-    <col min="6" max="9" width="5.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.9140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.58203125" style="35" customWidth="1"/>
+    <col min="6" max="9" width="5.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.58203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="58" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59" t="s">
-        <v>56</v>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="64" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="61"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1">
       <c r="A5" s="2"/>
@@ -1579,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>9</v>
@@ -1593,7 +1593,7 @@
       <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
@@ -1603,24 +1603,24 @@
         <v>20791241</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1631,21 +1631,21 @@
         <v>20653176</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -1657,85 +1657,85 @@
         <v>20689113</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>69</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>70</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="72"/>
+      <c r="B11" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="51"/>
-      <c r="B11" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="52"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="32"/>
@@ -1749,30 +1749,30 @@
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1">
       <c r="A16" s="8" t="s">
@@ -1812,14 +1812,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="C2:E3"/>
-    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A9:J9"/>
@@ -1829,6 +1821,14 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1844,97 +1844,97 @@
       <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999">
-      <c r="A1" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="79" t="s">
+    <row r="1" spans="1:12" ht="17">
+      <c r="A1" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.5">
+      <c r="A2" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="77">
+        <v>20791241</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.5">
+      <c r="A3" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="74">
-        <v>20791241</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="88" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.5">
+      <c r="A4" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="79" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.5">
+      <c r="A5" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="79" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.5">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -1948,11 +1948,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="93"/>
+    <row r="7" spans="1:12" ht="14.5">
+      <c r="A7" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="83"/>
       <c r="C7" s="13">
         <v>1</v>
       </c>
@@ -1984,27 +1984,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
+    <row r="8" spans="1:12" ht="14.5">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.5">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="20"/>
@@ -2018,30 +2018,30 @@
       <c r="K9" s="12"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="79" t="s">
+    <row r="10" spans="1:12" ht="14.5">
+      <c r="A10" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.5">
+      <c r="A11" s="74"/>
+      <c r="B11" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="79"/>
-      <c r="B11" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
@@ -2074,10 +2074,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="79"/>
+    <row r="12" spans="1:12" ht="14.5">
+      <c r="A12" s="74"/>
       <c r="B12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="10"/>
@@ -2085,14 +2085,14 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="24"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="14.5">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="25"/>
@@ -2106,30 +2106,30 @@
       <c r="K13" s="12"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="1:12" ht="57.6">
-      <c r="A14" s="79" t="s">
+    <row r="14" spans="1:12" ht="58">
+      <c r="A14" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="C14" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="79"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.5">
+      <c r="A15" s="74"/>
       <c r="B15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
@@ -2162,10 +2162,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
-      <c r="A16" s="79"/>
+    <row r="16" spans="1:12" ht="14.5">
+      <c r="A16" s="74"/>
       <c r="B16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="10"/>
@@ -2173,14 +2173,14 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="24"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="14.5">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -2195,106 +2195,106 @@
       <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="C18" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="74"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="74"/>
+      <c r="B20" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="79"/>
-      <c r="B20" s="82" t="s">
+      <c r="C20" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="D20" s="92"/>
+      <c r="E20" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="81" t="s">
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="74"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="74"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="92"/>
+      <c r="E22" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="79"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="79"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="79"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="A23" s="74"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.5">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -2309,675 +2309,90 @@
       <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="77"/>
+      <c r="C25" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="94"/>
+      <c r="E25" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="74" t="s">
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A26" s="74"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="74"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:L19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:L21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:L23"/>
     <mergeCell ref="A25:B26"/>
     <mergeCell ref="E25:L26"/>
     <mergeCell ref="A27:B29"/>
     <mergeCell ref="C27:L29"/>
     <mergeCell ref="C25:D26"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5EF33-8633-4F72-B1BF-8C7FA3650AC5}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999">
-      <c r="A1" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="74">
-        <v>20653176</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2</v>
-      </c>
-      <c r="E7" s="10">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10">
-        <v>5</v>
-      </c>
-      <c r="H7" s="14">
-        <v>6</v>
-      </c>
-      <c r="I7" s="10">
-        <v>7</v>
-      </c>
-      <c r="J7" s="10">
-        <v>8</v>
-      </c>
-      <c r="K7" s="10">
-        <v>9</v>
-      </c>
-      <c r="L7" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="79"/>
-      <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10">
-        <v>4</v>
-      </c>
-      <c r="G11" s="10">
-        <v>5</v>
-      </c>
-      <c r="H11" s="14">
-        <v>6</v>
-      </c>
-      <c r="I11" s="10">
-        <v>7</v>
-      </c>
-      <c r="J11" s="10">
-        <v>8</v>
-      </c>
-      <c r="K11" s="10">
-        <v>9</v>
-      </c>
-      <c r="L11" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="79"/>
-      <c r="B12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="1:12" ht="57.6">
-      <c r="A14" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="79"/>
-      <c r="B15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-      <c r="E15" s="10">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10">
-        <v>4</v>
-      </c>
-      <c r="G15" s="10">
-        <v>5</v>
-      </c>
-      <c r="H15" s="14">
-        <v>6</v>
-      </c>
-      <c r="I15" s="10">
-        <v>7</v>
-      </c>
-      <c r="J15" s="10">
-        <v>8</v>
-      </c>
-      <c r="K15" s="10">
-        <v>9</v>
-      </c>
-      <c r="L15" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15">
-      <c r="A16" s="79"/>
-      <c r="B16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="79"/>
-      <c r="B20" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="79"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="79"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="79"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="74"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="74"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="C27:L29"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:L19"/>
@@ -3006,105 +2421,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB8308F-7783-418E-A22B-92AB23416CE3}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5EF33-8633-4F72-B1BF-8C7FA3650AC5}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999">
-      <c r="A1" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="79" t="s">
+    <row r="1" spans="1:12" ht="17">
+      <c r="A1" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.5">
+      <c r="A2" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="77">
+        <v>20653176</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.5">
+      <c r="A3" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="74">
-        <v>20689113</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="88" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.5">
+      <c r="A4" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="79" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.5">
+      <c r="A5" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="79" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.5">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -3118,11 +2533,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="93"/>
+    <row r="7" spans="1:12" ht="14.5">
+      <c r="A7" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="83"/>
       <c r="C7" s="13">
         <v>1</v>
       </c>
@@ -3154,27 +2569,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
+    <row r="8" spans="1:12" ht="14.5">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.5">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="20"/>
@@ -3188,30 +2603,30 @@
       <c r="K9" s="12"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="79" t="s">
+    <row r="10" spans="1:12" ht="14.5">
+      <c r="A10" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.5">
+      <c r="A11" s="74"/>
+      <c r="B11" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="79"/>
-      <c r="B11" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
@@ -3244,10 +2659,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="79"/>
+    <row r="12" spans="1:12" ht="14.5">
+      <c r="A12" s="74"/>
       <c r="B12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="10"/>
@@ -3255,14 +2670,14 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="41" t="s">
+        <v>71</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="24"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="14.5">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="25"/>
@@ -3276,30 +2691,30 @@
       <c r="K13" s="12"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="1:12" ht="57.6">
-      <c r="A14" s="79" t="s">
+    <row r="14" spans="1:12" ht="58">
+      <c r="A14" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="C14" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="79"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.5">
+      <c r="A15" s="74"/>
       <c r="B15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
@@ -3332,10 +2747,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
-      <c r="A16" s="79"/>
+    <row r="16" spans="1:12" ht="14.5">
+      <c r="A16" s="74"/>
       <c r="B16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="10"/>
@@ -3344,13 +2759,13 @@
       <c r="G16" s="10"/>
       <c r="H16" s="14"/>
       <c r="I16" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="24"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="14.5">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -3365,106 +2780,106 @@
       <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="C18" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="74"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="74"/>
+      <c r="B20" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="79"/>
-      <c r="B20" s="82" t="s">
+      <c r="C20" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="D20" s="92"/>
+      <c r="E20" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="81" t="s">
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="74"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="74"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="92"/>
+      <c r="E22" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="79"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="79"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="79"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="A23" s="74"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.5">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -3479,98 +2894,85 @@
       <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="77"/>
+      <c r="C25" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="92"/>
+      <c r="E25" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="74" t="s">
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="74"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="74"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="C27:L29"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:L19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:L21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:L23"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="A1:L1"/>
@@ -3585,6 +2987,604 @@
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="C10:L10"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:L19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:L21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:L23"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="C27:L29"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB8308F-7783-418E-A22B-92AB23416CE3}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17">
+      <c r="A1" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.5">
+      <c r="A2" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="77">
+        <v>20689113</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.5">
+      <c r="A3" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.5">
+      <c r="A4" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.5">
+      <c r="A5" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.5">
+      <c r="A7" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10">
+        <v>5</v>
+      </c>
+      <c r="H7" s="14">
+        <v>6</v>
+      </c>
+      <c r="I7" s="10">
+        <v>7</v>
+      </c>
+      <c r="J7" s="10">
+        <v>8</v>
+      </c>
+      <c r="K7" s="10">
+        <v>9</v>
+      </c>
+      <c r="L7" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.5">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.5">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.5">
+      <c r="A10" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.5">
+      <c r="A11" s="74"/>
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10">
+        <v>4</v>
+      </c>
+      <c r="G11" s="10">
+        <v>5</v>
+      </c>
+      <c r="H11" s="14">
+        <v>6</v>
+      </c>
+      <c r="I11" s="10">
+        <v>7</v>
+      </c>
+      <c r="J11" s="10">
+        <v>8</v>
+      </c>
+      <c r="K11" s="10">
+        <v>9</v>
+      </c>
+      <c r="L11" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.5">
+      <c r="A12" s="74"/>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" ht="58">
+      <c r="A14" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.5">
+      <c r="A15" s="74"/>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5</v>
+      </c>
+      <c r="H15" s="14">
+        <v>6</v>
+      </c>
+      <c r="I15" s="10">
+        <v>7</v>
+      </c>
+      <c r="J15" s="10">
+        <v>8</v>
+      </c>
+      <c r="K15" s="10">
+        <v>9</v>
+      </c>
+      <c r="L15" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.5">
+      <c r="A16" s="74"/>
+      <c r="B16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.5">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="74"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="74"/>
+      <c r="B20" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="92"/>
+      <c r="E20" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="74"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="74"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="92"/>
+      <c r="E22" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="74"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.5">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="77"/>
+      <c r="C25" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="92"/>
+      <c r="E25" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:L19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:L21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:L23"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="C27:L29"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
